--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H2">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I2">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J2">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q2">
-        <v>0.8951439101444444</v>
+        <v>0.006307448483333334</v>
       </c>
       <c r="R2">
-        <v>8.0562951913</v>
+        <v>0.05676703634999999</v>
       </c>
       <c r="S2">
-        <v>0.0005650887775112158</v>
+        <v>4.246090959384224E-06</v>
       </c>
       <c r="T2">
-        <v>0.0005650887775112157</v>
+        <v>4.246090959384223E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.895758333333333</v>
+        <v>1.178962333333333</v>
       </c>
       <c r="H3">
-        <v>29.687275</v>
+        <v>3.536887</v>
       </c>
       <c r="I3">
-        <v>0.009836335004010318</v>
+        <v>0.001182125215344215</v>
       </c>
       <c r="J3">
-        <v>0.009836335004010316</v>
+        <v>0.001182125215344214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.452321</v>
       </c>
       <c r="O3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q3">
-        <v>14.68636421280833</v>
+        <v>1.749706251636333</v>
       </c>
       <c r="R3">
-        <v>132.177277915275</v>
+        <v>15.747356264727</v>
       </c>
       <c r="S3">
-        <v>0.009271246226499101</v>
+        <v>0.001177879124384831</v>
       </c>
       <c r="T3">
-        <v>0.009271246226499099</v>
+        <v>0.00117787912438483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I4">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J4">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N4">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q4">
-        <v>85.99395445446356</v>
+        <v>5.086018340116667</v>
       </c>
       <c r="R4">
-        <v>773.945590090172</v>
+        <v>45.77416506105</v>
       </c>
       <c r="S4">
-        <v>0.05428648739640825</v>
+        <v>0.003423840329460596</v>
       </c>
       <c r="T4">
-        <v>0.05428648739640825</v>
+        <v>0.003423840329460595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2851.972901</v>
       </c>
       <c r="I5">
-        <v>0.9449490017724818</v>
+        <v>0.9532080272144655</v>
       </c>
       <c r="J5">
-        <v>0.9449490017724816</v>
+        <v>0.9532080272144653</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +744,22 @@
         <v>4.452321</v>
       </c>
       <c r="O5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q5">
-        <v>1410.877648728136</v>
+        <v>1410.877648728135</v>
       </c>
       <c r="R5">
         <v>12697.89883855322</v>
       </c>
       <c r="S5">
-        <v>0.8906625143760735</v>
+        <v>0.9497841868850049</v>
       </c>
       <c r="T5">
-        <v>0.8906625143760734</v>
+        <v>0.9497841868850047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H6">
         <v>136.463443</v>
       </c>
       <c r="I6">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J6">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q6">
-        <v>4.114706383755112</v>
+        <v>0.2433598066833333</v>
       </c>
       <c r="R6">
-        <v>37.032357453796</v>
+        <v>2.19023826015</v>
       </c>
       <c r="S6">
-        <v>0.002597542555854032</v>
+        <v>0.0001638266056022554</v>
       </c>
       <c r="T6">
-        <v>0.002597542555854031</v>
+        <v>0.0001638266056022554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.48781433333334</v>
+        <v>45.48781433333333</v>
       </c>
       <c r="H7">
         <v>136.463443</v>
       </c>
       <c r="I7">
-        <v>0.04521466322350795</v>
+        <v>0.04560984757019037</v>
       </c>
       <c r="J7">
-        <v>0.04521466322350794</v>
+        <v>0.04560984757019036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>4.452321</v>
       </c>
       <c r="O7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q7">
-        <v>67.50878366680034</v>
+        <v>67.50878366680031</v>
       </c>
       <c r="R7">
-        <v>607.5790530012031</v>
+        <v>607.5790530012029</v>
       </c>
       <c r="S7">
-        <v>0.04261712066765392</v>
+        <v>0.04544602096458811</v>
       </c>
       <c r="T7">
-        <v>0.04261712066765391</v>
+        <v>0.04544602096458811</v>
       </c>
     </row>
   </sheetData>
